--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC07_Verify_MyaccountSection_1.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC07_Verify_MyaccountSection_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E8278-2603-4F49-AF75-1E95CF3C4474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C887DE-E35E-4E14-8F48-C8F4FD293C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="99">
   <si>
     <t>TestCase</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>TC07_Verify_MyaccountSection_1</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -748,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1159,254 +1162,238 @@
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>49</v>
+      <c r="E29" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
-        <v>19</v>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
-        <v>19</v>
+      <c r="B39" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>11</v>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>66</v>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
-      <c r="B45" s="5" t="s">
-        <v>18</v>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
-      <c r="B46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>59</v>
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1415,35 +1402,41 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
-        <v>19</v>
+      <c r="B47" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>11</v>
+      <c r="B49" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
@@ -1452,37 +1445,35 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
@@ -1491,16 +1482,55 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1927,12 +1957,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2133,15 +2160,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2166,10 +2197,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>